--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,14 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC91D408-742B-4CD4-8BD9-D06718E54B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56057E8E-90EF-4394-926C-941E605F1D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -427,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -467,37 +465,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
-</worksheet>
 </file>